--- a/biology/Botanique/Euphrasia_alpina/Euphrasia_alpina.xlsx
+++ b/biology/Botanique/Euphrasia_alpina/Euphrasia_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Euphraise des Alpes (Euphrasia alpina) est une espèce de plantes herbacées du genre Euphrasia et de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981)[1] ou des Orobanchaceae selon la classification phylogénétique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Euphraise des Alpes (Euphrasia alpina) est une espèce de plantes herbacées du genre Euphrasia et de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981) ou des Orobanchaceae selon la classification phylogénétique.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fleurs rose lilas, avec un cœur jaune séparé par une bande blanche.
-Hauteur de 5 à 20 cm[2].
+Hauteur de 5 à 20 cm.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Prairies alpines de 500 à 2 700 m.
-Pyrénées orientales - Alpes[3].
+Pyrénées orientales - Alpes.
 </t>
         </is>
       </c>
